--- a/DoAnDiemDanh/Content/doc/SinhVien.xlsx
+++ b/DoAnDiemDanh/Content/doc/SinhVien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7166AE0C-3E9C-46B1-9E53-04DBD04E48E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB98A5B-435D-46C4-A044-79A71667C231}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E0489E6B-10AA-49E2-85A2-EA6CC050E602}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="31">
   <si>
     <t>STT</t>
   </si>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D6419C-4193-4CBA-B40B-AC2AC9063FD9}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,124 +781,418 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -906,8 +1200,14 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{777C61C7-432A-476B-A862-AA47CA36C0F7}"/>
     <hyperlink ref="E3:E11" r:id="rId2" display="thedung633@gmail.com" xr:uid="{D4BB9523-7DD4-4B60-958B-A4BCEFBB98DA}"/>
     <hyperlink ref="E3" r:id="rId3" xr:uid="{168696DA-E6BD-48A5-9D21-767790F36E2E}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{D4EBDDD6-B891-46AB-ACDA-0B992677D35A}"/>
+    <hyperlink ref="E13:E21" r:id="rId5" display="thedung633@gmail.com" xr:uid="{8B9EBC70-9766-4640-81F7-B1DD2C2AC4DA}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{13B69148-2505-4867-AD05-A67E3A46B207}"/>
+    <hyperlink ref="E22" r:id="rId7" xr:uid="{A8E96210-91B9-4269-BEE1-705D3BB68412}"/>
+    <hyperlink ref="E23:E31" r:id="rId8" display="thedung633@gmail.com" xr:uid="{422F5952-67EF-49B7-8589-6A07B4D867F8}"/>
+    <hyperlink ref="E23" r:id="rId9" xr:uid="{5DB9D790-47B6-4CF6-8FEB-F32476BCA7AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/DoAnDiemDanh/Content/doc/SinhVien.xlsx
+++ b/DoAnDiemDanh/Content/doc/SinhVien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB98A5B-435D-46C4-A044-79A71667C231}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A30C74B-6DFE-47EA-A60D-2252A6EC9716}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E0489E6B-10AA-49E2-85A2-EA6CC050E602}"/>
+    <workbookView xWindow="2940" yWindow="804" windowWidth="17268" windowHeight="11004" xr2:uid="{E0489E6B-10AA-49E2-85A2-EA6CC050E602}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>STT</t>
   </si>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D6419C-4193-4CBA-B40B-AC2AC9063FD9}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,434 +780,14 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{777C61C7-432A-476B-A862-AA47CA36C0F7}"/>
     <hyperlink ref="E3:E11" r:id="rId2" display="thedung633@gmail.com" xr:uid="{D4BB9523-7DD4-4B60-958B-A4BCEFBB98DA}"/>
     <hyperlink ref="E3" r:id="rId3" xr:uid="{168696DA-E6BD-48A5-9D21-767790F36E2E}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{D4EBDDD6-B891-46AB-ACDA-0B992677D35A}"/>
-    <hyperlink ref="E13:E21" r:id="rId5" display="thedung633@gmail.com" xr:uid="{8B9EBC70-9766-4640-81F7-B1DD2C2AC4DA}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{13B69148-2505-4867-AD05-A67E3A46B207}"/>
-    <hyperlink ref="E22" r:id="rId7" xr:uid="{A8E96210-91B9-4269-BEE1-705D3BB68412}"/>
-    <hyperlink ref="E23:E31" r:id="rId8" display="thedung633@gmail.com" xr:uid="{422F5952-67EF-49B7-8589-6A07B4D867F8}"/>
-    <hyperlink ref="E23" r:id="rId9" xr:uid="{5DB9D790-47B6-4CF6-8FEB-F32476BCA7AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/DoAnDiemDanh/Content/doc/SinhVien.xlsx
+++ b/DoAnDiemDanh/Content/doc/SinhVien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A30C74B-6DFE-47EA-A60D-2252A6EC9716}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73FEE3F-2664-42F4-9911-C9C1026C4080}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="804" windowWidth="17268" windowHeight="11004" xr2:uid="{E0489E6B-10AA-49E2-85A2-EA6CC050E602}"/>
+    <workbookView xWindow="3528" yWindow="564" windowWidth="17268" windowHeight="11004" xr2:uid="{E0489E6B-10AA-49E2-85A2-EA6CC050E602}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>Lê Văn Duy</t>
   </si>
   <si>
-    <t>Trương Văn Hoàng</t>
-  </si>
-  <si>
     <t>60.CNTT-1</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>59.CNTT-3</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Huy</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,13 +575,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
@@ -596,19 +596,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -629,7 +629,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -650,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -659,19 +659,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -680,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -692,7 +692,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -701,7 +701,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -713,7 +713,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -722,19 +722,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -743,19 +743,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -764,19 +764,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1"/>
     </row>

--- a/DoAnDiemDanh/Content/doc/SinhVien.xlsx
+++ b/DoAnDiemDanh/Content/doc/SinhVien.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73FEE3F-2664-42F4-9911-C9C1026C4080}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52B1486-9A8A-4571-AC54-819DCF9BC2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3528" yWindow="564" windowWidth="17268" windowHeight="11004" xr2:uid="{E0489E6B-10AA-49E2-85A2-EA6CC050E602}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E0489E6B-10AA-49E2-85A2-EA6CC050E602}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>STT</t>
   </si>
@@ -54,9 +54,6 @@
     <t>59.CNTT-1</t>
   </si>
   <si>
-    <t>thedung633@gmail.com</t>
-  </si>
-  <si>
     <t>0369337366</t>
   </si>
   <si>
@@ -118,6 +115,69 @@
   </si>
   <si>
     <t>Nguyễn Xuân Huy</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>12 Võ Thị Sáu</t>
+  </si>
+  <si>
+    <t>13 Võ Thị Sáu</t>
+  </si>
+  <si>
+    <t>14 Võ Thị Sáu</t>
+  </si>
+  <si>
+    <t>15 Võ Thị Sáu</t>
+  </si>
+  <si>
+    <t>16 Võ Thị Sáu</t>
+  </si>
+  <si>
+    <t>17 Võ Thị Sáu</t>
+  </si>
+  <si>
+    <t>18 Võ Thị Sáu</t>
+  </si>
+  <si>
+    <t>19 Võ Thị Sáu</t>
+  </si>
+  <si>
+    <t>20 Võ Thị Sáu</t>
+  </si>
+  <si>
+    <t>21 Võ Thị Sáu</t>
+  </si>
+  <si>
+    <t>thedung6331@gmail.com</t>
+  </si>
+  <si>
+    <t>thedung6332@gmail.com</t>
+  </si>
+  <si>
+    <t>thedung6333@gmail.com</t>
+  </si>
+  <si>
+    <t>thedung6334@gmail.com</t>
+  </si>
+  <si>
+    <t>thedung6335@gmail.com</t>
+  </si>
+  <si>
+    <t>thedung6336@gmail.com</t>
+  </si>
+  <si>
+    <t>thedung6337@gmail.com</t>
+  </si>
+  <si>
+    <t>thedung6338@gmail.com</t>
+  </si>
+  <si>
+    <t>thedung6339@gmail.com</t>
+  </si>
+  <si>
+    <t>thedung63310@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -148,14 +208,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="10"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -165,6 +217,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,13 +272,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -537,7 +596,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,247 +606,278 @@
     <col min="4" max="4" width="22.5546875" customWidth="1"/>
     <col min="5" max="5" width="35.21875" customWidth="1"/>
     <col min="6" max="6" width="20.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{777C61C7-432A-476B-A862-AA47CA36C0F7}"/>
-    <hyperlink ref="E3:E11" r:id="rId2" display="thedung633@gmail.com" xr:uid="{D4BB9523-7DD4-4B60-958B-A4BCEFBB98DA}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{168696DA-E6BD-48A5-9D21-767790F36E2E}"/>
+    <hyperlink ref="E3:E11" r:id="rId1" display="thedung633@gmail.com" xr:uid="{D4BB9523-7DD4-4B60-958B-A4BCEFBB98DA}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{168696DA-E6BD-48A5-9D21-767790F36E2E}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{777C61C7-432A-476B-A862-AA47CA36C0F7}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{741975FE-F70B-4247-933D-DAC29FD20083}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{7A50DBB6-2DC6-4E7D-B45B-A0CE29AE7972}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{0C9ECB76-71B7-4368-968E-1F543C1246C4}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{A29C3364-A180-4905-B8D1-311A17D4F4FF}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{35AEF27E-4C9B-4B03-BBBC-79039A54C31A}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{A6C67A66-D0D6-4239-9A8A-63D7FF11B709}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{3AC0E4EE-E426-43D4-8548-6DD88F34ED14}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{61B9EF48-24F7-4645-9E07-440F9E5C5484}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>